--- a/biology/Botanique/Jean_Kickx_(1803-1864)/Jean_Kickx_(1803-1864).xlsx
+++ b/biology/Botanique/Jean_Kickx_(1803-1864)/Jean_Kickx_(1803-1864).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Kickx est un botaniste belge, né à Bruxelles le 17 janvier 1803 et mort le 1er septembre 1864.
 Il entreprend la rédaction d’une Flore cryptogamique des Flandres qu’achève son fils Jean Jacques Kickx (1842-1887). Le genre Kickxia de la famille des Scrophulariaceae, créé par Barthélemy Charles Joseph Dumortier (1797-1878), commémore soit son nom, soit celui de son père, Jean Kickx (1775-1831), également botaniste.
